--- a/03_RPA/2차프로젝트/herricane.xlsx
+++ b/03_RPA/2차프로젝트/herricane.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RoadClose" sheetId="1" r:id="rId1"/>
-    <sheet name="RoadCondition" sheetId="2" r:id="rId2"/>
-    <sheet name="ROADEVENT" sheetId="3" r:id="rId3"/>
+    <sheet name="RoadClose" sheetId="7" r:id="rId1"/>
+    <sheet name="RoadCondition" sheetId="9" r:id="rId2"/>
+    <sheet name="ROADEVENT" sheetId="8" r:id="rId3"/>
     <sheet name="RoadWork" sheetId="4" r:id="rId4"/>
     <sheet name="wave" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>ocrr_id</t>
   </si>
@@ -44,107 +44,232 @@
   </si>
   <si>
     <t>block_lane</t>
+  </si>
+  <si>
+    <t>[1100고지] 전면통제</t>
+  </si>
+  <si>
+    <t>[1100도로] 전면통제</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>road_temp</t>
+  </si>
+  <si>
+    <t>water_film</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>관측소코드</t>
+  </si>
+  <si>
+    <t>관측소명</t>
+  </si>
+  <si>
+    <t>관측시간</t>
+  </si>
+  <si>
+    <t>파도높이</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>KG_0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG_0028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주남부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주해협</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1100고지] 전면통제</t>
-  </si>
-  <si>
-    <t>[1100도로] 전면통제</t>
-  </si>
-  <si>
-    <t>visibility</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>road_temp</t>
-  </si>
-  <si>
-    <t>water_film</t>
-  </si>
-  <si>
-    <t>friction</t>
+    <t>[노을해안로] 신도포구 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[최남단해안로] 운진항 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[신영로36번길]전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[형제해안로]산이수동항 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[화순해안로]화순방파재 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[칠십리로]서귀포항 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[말질로]강정포구 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[막숙포로]법환항 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[쇠소깍로]하효항 진입로 전면통제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ocrr_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RA_8</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>[도령로] 신광사거리 북측 도로도색</t>
-  </si>
-  <si>
-    <t>RA_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관측소코드</t>
-  </si>
-  <si>
-    <t>관측소명</t>
-  </si>
-  <si>
-    <t>관측시간</t>
-  </si>
-  <si>
-    <t>파도높이</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>KG_0021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KG_0028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주남부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주해협</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[일주서로] 이호해변입구 서측 시설물공사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[일주서로] 이호해변입구 태풍대비 치수작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>RA_4631150106</t>
+  </si>
+  <si>
+    <t>RA_4831150101</t>
+  </si>
+  <si>
+    <t>RA_4631115201</t>
+  </si>
+  <si>
+    <t>RA_4131155151</t>
+  </si>
+  <si>
+    <t>RA_4631145226</t>
+  </si>
+  <si>
+    <t>RA_5331145225</t>
+  </si>
+  <si>
+    <t>RA_4631155156</t>
+  </si>
+  <si>
+    <t>RA_1031115204</t>
+  </si>
+  <si>
+    <t>RA_0131200221</t>
+  </si>
+  <si>
+    <t>RA_4131210111</t>
+  </si>
+  <si>
+    <t>RA_4131135221</t>
+  </si>
+  <si>
+    <t>RA_4631115206</t>
+  </si>
+  <si>
+    <t>RA_3431145221</t>
+  </si>
+  <si>
+    <t>RA_4631150101</t>
+  </si>
+  <si>
+    <t>RA_0831120101</t>
+  </si>
+  <si>
+    <t>RA_4831145221</t>
+  </si>
+  <si>
+    <t>RA_4631155151</t>
+  </si>
+  <si>
+    <t>RA_4131150101</t>
+  </si>
+  <si>
+    <t>RA_4631210116</t>
+  </si>
+  <si>
+    <t>RA_0931135225</t>
+  </si>
+  <si>
+    <t>RA_6031135221</t>
+  </si>
+  <si>
+    <t>RA_2231150101</t>
+  </si>
+  <si>
+    <t>RA_3431210111</t>
+  </si>
+  <si>
+    <t>RA_4631125211</t>
+  </si>
+  <si>
+    <t>RA_4131145221</t>
+  </si>
+  <si>
+    <t>RA_4631210111</t>
+  </si>
+  <si>
+    <t>RA_5531115201</t>
+  </si>
+  <si>
+    <t>RA_4731200221</t>
+  </si>
+  <si>
+    <t>RA_4631145221</t>
+  </si>
+  <si>
+    <t>RA_4631120101</t>
+  </si>
+  <si>
+    <t>RA_2231145221</t>
+  </si>
+  <si>
+    <t>RA_0931145221</t>
+  </si>
+  <si>
+    <t>RA_2231145225</t>
+  </si>
+  <si>
+    <t>RA_4131115201</t>
+  </si>
+  <si>
+    <t>RA_4631135221</t>
+  </si>
+  <si>
+    <t>RA_6331115201</t>
+  </si>
+  <si>
+    <t>RA_4131120101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0#"/>
-    <numFmt numFmtId="177" formatCode="00#"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -193,12 +318,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -484,13 +607,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -515,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -537,11 +669,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -563,11 +695,245 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25">
+      <c r="A4">
+        <v>849</v>
+      </c>
+      <c r="B4" s="3">
+        <v>33.276656147944699</v>
+      </c>
+      <c r="C4" s="3">
+        <v>126.170565363413</v>
+      </c>
+      <c r="D4">
+        <v>282</v>
+      </c>
+      <c r="E4">
+        <v>4070008801</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25">
+      <c r="A5">
+        <v>1031</v>
+      </c>
+      <c r="B5" s="3">
+        <v>33.209796654625201</v>
+      </c>
+      <c r="C5" s="3">
+        <v>126.255508319271</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>4070008701</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25">
+      <c r="A6">
+        <v>236</v>
+      </c>
+      <c r="B6" s="3">
+        <v>33.217922365278298</v>
+      </c>
+      <c r="C6" s="3">
+        <v>126.24777211934099</v>
+      </c>
+      <c r="D6">
+        <v>197</v>
+      </c>
+      <c r="E6">
+        <v>4070008601</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25">
+      <c r="A7">
+        <v>418</v>
+      </c>
+      <c r="B7" s="3">
+        <v>33.206587718441398</v>
+      </c>
+      <c r="C7" s="3">
+        <v>126.29021239193</v>
+      </c>
+      <c r="D7">
+        <v>167</v>
+      </c>
+      <c r="E7">
+        <v>4070008501</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25">
+      <c r="A8">
+        <v>190</v>
+      </c>
+      <c r="B8" s="3">
+        <v>33.235224640673998</v>
+      </c>
+      <c r="C8" s="3">
+        <v>126.336895961491</v>
+      </c>
+      <c r="D8">
+        <v>213</v>
+      </c>
+      <c r="E8">
+        <v>4070008401</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25">
+      <c r="A9">
+        <v>526</v>
+      </c>
+      <c r="B9" s="3">
+        <v>33.240761179931198</v>
+      </c>
+      <c r="C9" s="3">
+        <v>126.56600789501999</v>
+      </c>
+      <c r="D9">
+        <v>171</v>
+      </c>
+      <c r="E9">
+        <v>4070008301</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25">
+      <c r="A10">
+        <v>862</v>
+      </c>
+      <c r="B10" s="3">
+        <v>33.227303533467499</v>
+      </c>
+      <c r="C10" s="3">
+        <v>126.47482214684899</v>
+      </c>
+      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>4070008201</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25">
+      <c r="A11">
+        <v>1198</v>
+      </c>
+      <c r="B11" s="3">
+        <v>33.237242020568402</v>
+      </c>
+      <c r="C11" s="3">
+        <v>126.515434914004</v>
+      </c>
+      <c r="D11">
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>4070008101</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25">
+      <c r="A12">
+        <v>1308</v>
+      </c>
+      <c r="B12" s="3">
+        <v>33.250264655764902</v>
+      </c>
+      <c r="C12" s="3">
+        <v>126.62128479634799</v>
+      </c>
+      <c r="D12">
+        <v>180</v>
+      </c>
+      <c r="E12">
+        <v>4070008001</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -579,15 +945,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -604,94 +971,94 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>33.415325920000001</v>
+        <v>33.29056053</v>
       </c>
       <c r="B2">
-        <v>126.47958106</v>
+        <v>126.46054189</v>
       </c>
       <c r="C2">
-        <v>266.8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4050000701</v>
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>20000</v>
+        <v>1367</v>
       </c>
       <c r="F2">
-        <v>10.67</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-10.65</v>
+        <v>19.8</v>
       </c>
       <c r="H2">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.04</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
+        <v>0.67</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>33.414733069999997</v>
+        <v>33.317921120000001</v>
       </c>
       <c r="B3">
-        <v>126.48136499</v>
+        <v>126.59859289000001</v>
       </c>
       <c r="C3">
-        <v>291.7</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>4050000702</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>24000</v>
+        <v>1033</v>
       </c>
       <c r="F3">
-        <v>150.66999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-10.65</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="H3">
-        <v>240.33</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.18</v>
-      </c>
-      <c r="J3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="J3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>33.29056053</v>
+        <v>33.330937210000002</v>
       </c>
       <c r="B4">
-        <v>126.46054189</v>
+        <v>126.35492345</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -700,30 +1067,30 @@
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0.81</v>
       </c>
       <c r="J4">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>33.317921120000001</v>
+        <v>33.358829</v>
       </c>
       <c r="B5">
-        <v>126.59859289000001</v>
+        <v>126.46309100000001</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -732,30 +1099,30 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>3564</v>
+        <v>14101</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>9.6</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="J5">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>33.330937210000002</v>
+        <v>33.365822430000001</v>
       </c>
       <c r="B6">
-        <v>126.35492345</v>
+        <v>126.36761751</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -764,30 +1131,30 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>20000</v>
+        <v>429</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0.47</v>
       </c>
       <c r="J6">
-        <v>99</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>33.358829</v>
+        <v>33.384836929999999</v>
       </c>
       <c r="B7">
-        <v>126.46309100000001</v>
+        <v>126.62063386</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -796,30 +1163,30 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>1874</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>15.8</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>33.365822430000001</v>
+        <v>33.388567190000003</v>
       </c>
       <c r="B8">
-        <v>126.36761751</v>
+        <v>126.37303728000001</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -828,30 +1195,30 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>12382</v>
+        <v>4413</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="J8">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>33.384836929999999</v>
+        <v>33.408869260000003</v>
       </c>
       <c r="B9">
-        <v>126.62063386</v>
+        <v>126.68085293999999</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -860,30 +1227,30 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>615</v>
+        <v>4228</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>14.2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>33.388567190000003</v>
+        <v>33.419426000000001</v>
       </c>
       <c r="B10">
-        <v>126.37303728000001</v>
+        <v>126.40606699999999</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -892,19 +1259,19 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>14101</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13.4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -912,10 +1279,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>33.408869260000003</v>
+        <v>33.422675120000001</v>
       </c>
       <c r="B11">
-        <v>126.68085293999999</v>
+        <v>126.49286232999999</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -924,30 +1291,30 @@
         <v>-1</v>
       </c>
       <c r="E11">
-        <v>7534</v>
+        <v>11811</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>12.6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="J11">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>33.419426000000001</v>
+        <v>33.452592189999997</v>
       </c>
       <c r="B12">
-        <v>126.40606699999999</v>
+        <v>126.70940188</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -956,30 +1323,30 @@
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>14101</v>
+        <v>18981</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>15.4</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>0.78</v>
       </c>
       <c r="J12">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>33.422675120000001</v>
+        <v>33.456221290000002</v>
       </c>
       <c r="B13">
-        <v>126.49286232999999</v>
+        <v>126.55122129999999</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -991,27 +1358,27 @@
         <v>20000</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>18.2</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>0.81</v>
       </c>
       <c r="J13">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>33.452592189999997</v>
+        <v>33.29056053</v>
       </c>
       <c r="B14">
-        <v>126.70940188</v>
+        <v>126.46054189</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1020,54 +1387,1526 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>7470</v>
+        <v>1036</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
+        <v>33.317921120000001</v>
+      </c>
+      <c r="B15">
+        <v>126.59859289000001</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>5046</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>18.7</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.87</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>33.330937210000002</v>
+      </c>
+      <c r="B16">
+        <v>126.35492345</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>311</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0.93</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>33.358829</v>
+      </c>
+      <c r="B17">
+        <v>126.46309100000001</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>18981</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>9.5</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.79</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>33.365822430000001</v>
+      </c>
+      <c r="B18">
+        <v>126.36761751</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>323</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>16.5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.65</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>33.384836929999999</v>
+      </c>
+      <c r="B19">
+        <v>126.62063386</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>2510</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>15.8</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.69</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>33.388567190000003</v>
+      </c>
+      <c r="B20">
+        <v>126.37303728000001</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>4697</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>15.1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.73</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>33.408869260000003</v>
+      </c>
+      <c r="B21">
+        <v>126.68085293999999</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>5306</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>14.4</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.77</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>33.419426000000001</v>
+      </c>
+      <c r="B22">
+        <v>126.40606699999999</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>14101</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>13.7</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.81</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>33.422675120000001</v>
+      </c>
+      <c r="B23">
+        <v>126.49286232999999</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>8475</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0.85</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>33.452592189999997</v>
+      </c>
+      <c r="B24">
+        <v>126.70940188</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>20000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>15.7</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.78</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>33.456221290000002</v>
       </c>
-      <c r="B15">
+      <c r="B25">
         <v>126.55122129999999</v>
       </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
         <v>20000</v>
       </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-      <c r="J15">
-        <v>99</v>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.71</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>33.29056053</v>
+      </c>
+      <c r="B26">
+        <v>126.46054189</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>1746</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>21.1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0.64</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>33.317921120000001</v>
+      </c>
+      <c r="B27">
+        <v>126.59859289000001</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>1354</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>10.3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>33.330937210000002</v>
+      </c>
+      <c r="B28">
+        <v>126.35492345</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>254</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>9.9</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>33.358829</v>
+      </c>
+      <c r="B29">
+        <v>126.46309100000001</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>4697</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>9.5</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.79</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>33.365822430000001</v>
+      </c>
+      <c r="B30">
+        <v>126.36761751</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>309</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>9.1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0.8</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>33.384836929999999</v>
+      </c>
+      <c r="B31">
+        <v>126.62063386</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>6099</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>15.5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.77</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>33.388567190000003</v>
+      </c>
+      <c r="B32">
+        <v>126.37303728000001</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>5306</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.74</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>33.408869260000003</v>
+      </c>
+      <c r="B33">
+        <v>126.68085293999999</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>4413</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>14.5</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0.71</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>33.419426000000001</v>
+      </c>
+      <c r="B34">
+        <v>126.40606699999999</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>14101</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.68</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>33.422675120000001</v>
+      </c>
+      <c r="B35">
+        <v>126.49286232999999</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>10848</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>13.5</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.65</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>33.452592189999997</v>
+      </c>
+      <c r="B36">
+        <v>126.70940188</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>20000</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>15.7</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.78</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>33.456221290000002</v>
+      </c>
+      <c r="B37">
+        <v>126.55122129999999</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>20000</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.91</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>33.29056053</v>
+      </c>
+      <c r="B38">
+        <v>126.46054189</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>876</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.69</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>33.317921120000001</v>
+      </c>
+      <c r="B39">
+        <v>126.59859289000001</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>20000</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>22.3</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.73</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>33.330937210000002</v>
+      </c>
+      <c r="B40">
+        <v>126.35492345</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>24.5</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0.77</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>33.358829</v>
+      </c>
+      <c r="B41">
+        <v>126.46309100000001</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>5306</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>9.1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.81</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>33.365822430000001</v>
+      </c>
+      <c r="B42">
+        <v>126.36761751</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>174</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.81</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>33.384836929999999</v>
+      </c>
+      <c r="B43">
+        <v>126.62063386</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>20000</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0.79</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>33.388567190000003</v>
+      </c>
+      <c r="B44">
+        <v>126.37303728000001</v>
+      </c>
+      <c r="C44">
+        <v>-1</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>4697</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>14.9</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0.77</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>33.408869260000003</v>
+      </c>
+      <c r="B45">
+        <v>126.68085293999999</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>20000</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>12.2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0.75</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>33.419426000000001</v>
+      </c>
+      <c r="B46">
+        <v>126.40606699999999</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>14101</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>9.5</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0.73</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>33.422675120000001</v>
+      </c>
+      <c r="B47">
+        <v>126.49286232999999</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>4293</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>18.7</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.71</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>33.452592189999997</v>
+      </c>
+      <c r="B48">
+        <v>126.70940188</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>20000</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>17.2</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.79</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>33.456221290000002</v>
+      </c>
+      <c r="B49">
+        <v>126.55122129999999</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>19804</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>15.7</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.87</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>33.29056053</v>
+      </c>
+      <c r="B50">
+        <v>126.46054189</v>
+      </c>
+      <c r="C50">
+        <v>-1</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>567</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>14.2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0.78</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>33.317921120000001</v>
+      </c>
+      <c r="B51">
+        <v>126.59859289000001</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>19747</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>12.7</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.79</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>33.330937210000002</v>
+      </c>
+      <c r="B52">
+        <v>126.35492345</v>
+      </c>
+      <c r="C52">
+        <v>-1</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>91</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>11.2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0.8</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>33.358829</v>
+      </c>
+      <c r="B53">
+        <v>126.46309100000001</v>
+      </c>
+      <c r="C53">
+        <v>-1</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>5306</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>9.1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.81</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>33.365822430000001</v>
+      </c>
+      <c r="B54">
+        <v>126.36761751</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>187</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>19.8</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0.82</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>33.384836929999999</v>
+      </c>
+      <c r="B55">
+        <v>126.62063386</v>
+      </c>
+      <c r="C55">
+        <v>-1</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>20000</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>17.3</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0.79</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>33.388567190000003</v>
+      </c>
+      <c r="B56">
+        <v>126.37303728000001</v>
+      </c>
+      <c r="C56">
+        <v>-1</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>5306</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>14.8</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.76</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>33.408869260000003</v>
+      </c>
+      <c r="B57">
+        <v>126.68085293999999</v>
+      </c>
+      <c r="C57">
+        <v>-1</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>20000</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>12.3</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0.73</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>33.419426000000001</v>
+      </c>
+      <c r="B58">
+        <v>126.40606699999999</v>
+      </c>
+      <c r="C58">
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>14101</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.7</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>33.422675120000001</v>
+      </c>
+      <c r="B59">
+        <v>126.49286232999999</v>
+      </c>
+      <c r="C59">
+        <v>-1</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>20000</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>7.3</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0.67</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>33.452592189999997</v>
+      </c>
+      <c r="B60">
+        <v>126.70940188</v>
+      </c>
+      <c r="C60">
+        <v>-1</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>20000</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>18.7</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0.79</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>33.456221290000002</v>
+      </c>
+      <c r="B61">
+        <v>126.55122129999999</v>
+      </c>
+      <c r="C61">
+        <v>-1</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>16124</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>17.3</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0.91</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1078,20 +2917,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1106,68 +2949,756 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>33.504734040000002</v>
-      </c>
-      <c r="C2">
-        <v>126.62785390000001</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="3">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C2" s="3">
+        <v>126.37039971</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>407037000</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4055270800</v>
+      </c>
+      <c r="F2" s="2">
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>33.50512543</v>
+        <v>33.27543507</v>
       </c>
       <c r="C3">
-        <v>126.62813017000001</v>
+        <v>126.37936129000001</v>
       </c>
       <c r="D3">
-        <v>151.80000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>4070082700</v>
+        <v>4055304900</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5">
-        <v>33.468196551058199</v>
-      </c>
-      <c r="C4" s="5">
-        <v>126.60973266552099</v>
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C4">
+        <v>126.37039971</v>
       </c>
       <c r="D4">
-        <v>125</v>
-      </c>
-      <c r="E4" s="3">
-        <v>407027000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>4055270800</v>
+      </c>
+      <c r="F4">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>33.445453370000003</v>
+      </c>
+      <c r="C5">
+        <v>126.43365543</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>4055236700</v>
+      </c>
+      <c r="F5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C6">
+        <v>126.37039971</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>4055270800</v>
+      </c>
+      <c r="F6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>33.456529740000001</v>
+      </c>
+      <c r="C7">
+        <v>126.44267231000001</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>4055304900</v>
+      </c>
+      <c r="F7">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C8">
+        <v>126.37039971</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>4055270800</v>
+      </c>
+      <c r="F8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>33.366028</v>
+      </c>
+      <c r="C9">
+        <v>126.367671</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>4055236700</v>
+      </c>
+      <c r="F9">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>33.359664000000002</v>
+      </c>
+      <c r="C10">
+        <v>126.363349</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>4055202600</v>
+      </c>
+      <c r="F10">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>33.445453370000003</v>
+      </c>
+      <c r="C11">
+        <v>126.43365543</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>4055236700</v>
+      </c>
+      <c r="F11">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>33.445453370000003</v>
+      </c>
+      <c r="C12">
+        <v>126.43365543</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>4055236700</v>
+      </c>
+      <c r="F12">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C13">
+        <v>126.37039971</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>4055270800</v>
+      </c>
+      <c r="F13">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>33.423989980000002</v>
+      </c>
+      <c r="C14">
+        <v>126.40930168</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>4055304900</v>
+      </c>
+      <c r="F14">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C15">
+        <v>126.37039971</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>4055270800</v>
+      </c>
+      <c r="F15">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>33.338453110000003</v>
+      </c>
+      <c r="C16">
+        <v>126.35631730999999</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>4055236700</v>
+      </c>
+      <c r="F16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>33.27543507</v>
+      </c>
+      <c r="C17">
+        <v>126.37936129000001</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>4055202600</v>
+      </c>
+      <c r="F17">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C18">
+        <v>126.37039971</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>4055270800</v>
+      </c>
+      <c r="F18">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>33.445453370000003</v>
+      </c>
+      <c r="C19">
+        <v>126.43365543</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>4055236700</v>
+      </c>
+      <c r="F19">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C20">
+        <v>126.37039971</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>4055270800</v>
+      </c>
+      <c r="F20">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>33.366028</v>
+      </c>
+      <c r="C21">
+        <v>126.367671</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>4055304900</v>
+      </c>
+      <c r="F21">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>33.330305610000003</v>
+      </c>
+      <c r="C22">
+        <v>126.83007889</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>4055047600</v>
+      </c>
+      <c r="F22">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>33.389986880000002</v>
+      </c>
+      <c r="C23">
+        <v>126.37359102000001</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>4055339000</v>
+      </c>
+      <c r="F23">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>33.423989980000002</v>
+      </c>
+      <c r="C24">
+        <v>126.40930168</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>4055304900</v>
+      </c>
+      <c r="F24">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C25">
+        <v>126.37039971</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>4055270800</v>
+      </c>
+      <c r="F25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>33.445453370000003</v>
+      </c>
+      <c r="C26">
+        <v>126.43365543</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>4055236700</v>
+      </c>
+      <c r="F26">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C27">
+        <v>126.37039971</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>4055270800</v>
+      </c>
+      <c r="F27">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <v>33.330991679999997</v>
+      </c>
+      <c r="C28">
+        <v>126.35488999</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>4055304900</v>
+      </c>
+      <c r="F28">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>33.27543507</v>
+      </c>
+      <c r="C29">
+        <v>126.37936129000001</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>4055339000</v>
+      </c>
+      <c r="F29">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C30">
+        <v>126.37039971</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>4055270800</v>
+      </c>
+      <c r="F30">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C31">
+        <v>126.37039971</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>4055270800</v>
+      </c>
+      <c r="F31">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>33.389986880000002</v>
+      </c>
+      <c r="C32">
+        <v>126.37359102000001</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>4055134400</v>
+      </c>
+      <c r="F32">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>33.366028</v>
+      </c>
+      <c r="C33">
+        <v>126.367671</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>4055168500</v>
+      </c>
+      <c r="F33">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>33.389986880000002</v>
+      </c>
+      <c r="C34">
+        <v>126.37359102000001</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>4055202600</v>
+      </c>
+      <c r="F34">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35">
+        <v>33.445453370000003</v>
+      </c>
+      <c r="C35">
+        <v>126.43365543</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>4055236700</v>
+      </c>
+      <c r="F35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>33.279018999999998</v>
+      </c>
+      <c r="C36">
+        <v>126.37039971</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>4055270800</v>
+      </c>
+      <c r="F36">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>33.518289039999999</v>
+      </c>
+      <c r="C37">
+        <v>126.49979798</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>4050181000</v>
+      </c>
+      <c r="F37">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>33.445453370000003</v>
+      </c>
+      <c r="C38">
+        <v>126.43365543</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>4055236700</v>
+      </c>
+      <c r="F38">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="17.25">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="108" spans="2:3" ht="17.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1177,10 +3708,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1188,6 +3719,7 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1213,111 +3745,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>33.496832730000001</v>
-      </c>
-      <c r="C2">
-        <v>126.49468933999999</v>
-      </c>
-      <c r="D2">
-        <v>214.5</v>
-      </c>
-      <c r="E2">
-        <v>4050022901</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3">
-        <v>33.494867259999999</v>
-      </c>
-      <c r="C3">
-        <v>126.45059286999999</v>
-      </c>
-      <c r="D3">
-        <v>81.8</v>
-      </c>
-      <c r="E3">
-        <v>4050022400</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25">
-      <c r="A4">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="5">
-        <v>33.2374590608798</v>
-      </c>
-      <c r="C4" s="5">
-        <v>126.23485451829499</v>
-      </c>
-      <c r="D4">
-        <v>133.4</v>
-      </c>
-      <c r="E4">
-        <v>4050021899</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25">
-      <c r="A5">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="5">
-        <v>33.220130113295603</v>
-      </c>
-      <c r="C5">
-        <v>126.250859732778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1006</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1341,32 +3769,32 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5">
         <v>44938</v>
       </c>
       <c r="D2">
@@ -1381,12 +3809,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5">
         <v>44938</v>
       </c>
       <c r="D3">
@@ -1400,7 +3828,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
